--- a/stakeholder_registertemplate.xls.xlsx
+++ b/stakeholder_registertemplate.xls.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Salon de la Justicia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder_Log" sheetId="1" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t>Communication Types</t>
   </si>
@@ -287,18 +287,9 @@
     <t>SENA</t>
   </si>
   <si>
-    <t>Coordinador</t>
-  </si>
-  <si>
     <t>Instructor</t>
   </si>
   <si>
-    <t>Otros centros(automatizacion, Cafetera, Comercio)</t>
-  </si>
-  <si>
-    <t>Aprendices</t>
-  </si>
-  <si>
     <t>Yaneth Mejia Rendon</t>
   </si>
   <si>
@@ -311,9 +302,6 @@
     <t>Jesus Alfredo Chaparro</t>
   </si>
   <si>
-    <t>Subdirector</t>
-  </si>
-  <si>
     <t>coming soon</t>
   </si>
   <si>
@@ -333,9 +321,6 @@
   </si>
   <si>
     <t>ymejia86@misena.edu.co                     304-545-8490</t>
-  </si>
-  <si>
-    <t>Instructores generales</t>
   </si>
   <si>
     <t>Engineers-Licenced</t>
@@ -388,6 +373,45 @@
   </si>
   <si>
     <t>Meetings - Email</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>instructors in general</t>
+  </si>
+  <si>
+    <t>Other centers (automation, coffee maker, commerce)</t>
+  </si>
+  <si>
+    <t>Companies in the city</t>
+  </si>
+  <si>
+    <t>Manizales Trade</t>
+  </si>
+  <si>
+    <t>Instructors</t>
+  </si>
+  <si>
+    <t>Vice principal</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Apprentices</t>
+  </si>
+  <si>
+    <t>Other educational institutions in the city.</t>
+  </si>
+  <si>
+    <t>Education sector of manizales.</t>
+  </si>
+  <si>
+    <t>Representatives of the city's commerce.</t>
+  </si>
+  <si>
+    <t>Representatives of the manizales education sector.</t>
   </si>
 </sst>
 </file>
@@ -802,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -816,9 +840,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -858,95 +879,104 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,739 +1437,610 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="5" width="15.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="11" width="21.7109375" style="40" customWidth="1"/>
-    <col min="12" max="12" width="21.7109375" customWidth="1"/>
-    <col min="13" max="22" width="8.7109375" customWidth="1"/>
-    <col min="23" max="26" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="40" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" style="25" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" style="40" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="40" customWidth="1"/>
+    <col min="10" max="11" width="21.7109375" style="25" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" style="40" customWidth="1"/>
+    <col min="13" max="22" width="8.7109375" style="40" customWidth="1"/>
+    <col min="23" max="26" width="17.28515625" style="40" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
     </row>
     <row r="2" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
     </row>
     <row r="3" spans="1:22" ht="92.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+    </row>
+    <row r="4" spans="1:22" s="45" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" spans="1:22" s="45" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="1:22" s="45" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="48"/>
+      <c r="B6" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:22" s="45" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="48"/>
+      <c r="B7" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:22" s="45" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="48"/>
+      <c r="B8" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="1:22" s="45" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="48"/>
+      <c r="B9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:22" s="45" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" spans="1:22" s="47" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-    </row>
-    <row r="5" spans="1:22" s="47" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="38" t="s">
+      <c r="I10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="38" t="s">
+      <c r="J10" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="49"/>
+    </row>
+    <row r="11" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="23" t="s">
+      <c r="G11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="I5" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="45" t="s">
+      <c r="I11" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" spans="1:22" s="47" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="37" t="s">
+      <c r="K11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="49"/>
+    </row>
+    <row r="12" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50"/>
+      <c r="B12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="45" t="s">
+      <c r="G12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="51" t="s">
+      <c r="K12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="27"/>
-    </row>
-    <row r="7" spans="1:22" s="47" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="27"/>
-    </row>
-    <row r="8" spans="1:22" s="47" customFormat="1" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J8" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="27"/>
-    </row>
-    <row r="9" spans="1:22" s="47" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="27"/>
-    </row>
-    <row r="10" spans="1:22" s="47" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49"/>
-      <c r="B10" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="27"/>
-    </row>
-    <row r="11" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
+      <c r="L12" s="49"/>
     </row>
     <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="49"/>
     </row>
     <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="49"/>
     </row>
     <row r="15" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="49"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="25"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="49"/>
+    </row>
+    <row r="17" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="49"/>
+    </row>
+    <row r="19" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="49"/>
+    </row>
+    <row r="20" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="49"/>
+    </row>
+    <row r="21" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="50"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="49"/>
+    </row>
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="50"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="49"/>
+    </row>
+    <row r="24" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="50"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="49"/>
+    </row>
+    <row r="25" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="53"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
